--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_18_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2317037.88921217</v>
+        <v>2314785.809500963</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9500189.557804352</v>
+        <v>9500189.557804354</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>110.1842403900295</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>308.3664578818496</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>65.36690640948929</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>49.68400593664564</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>61.31988685654841</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>36.95558184798582</v>
       </c>
     </row>
     <row r="6">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1102,7 +1102,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,7 +1111,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>135.8777235524898</v>
+        <v>72.89839816356351</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>131.1757920097866</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>97.18111948505729</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>214.4381565326525</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,10 +1534,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.66054613217746</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>181.02628600165</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>52.47682210852572</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1607,13 +1607,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722643</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179834</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560545</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>214.0647808588585</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,22 +2473,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>38.95525409458268</v>
       </c>
       <c r="Y25" t="n">
-        <v>195.7664815891591</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2770,13 +2770,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238267</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>19.86507844888454</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>96.99837838564402</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.3849150459366</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>73.93222849083782</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>20.88994825141629</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856552</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>118.4312223122568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.7084378797731</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>83.8728463917182</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559526</v>
+        <v>1308.370295943747</v>
       </c>
       <c r="C2" t="n">
-        <v>1514.348043559526</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="D2" t="n">
-        <v>1514.348043559526</v>
+        <v>939.4077790033357</v>
       </c>
       <c r="E2" t="n">
-        <v>1128.559790961282</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>717.5738861716743</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4325,31 +4325,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796418</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535338</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>690.674942710575</v>
+        <v>648.3899067494191</v>
       </c>
       <c r="C4" t="n">
-        <v>690.674942710575</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="D4" t="n">
-        <v>690.674942710575</v>
+        <v>479.4537238215122</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>872.3234075408147</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="X4" t="n">
-        <v>872.3234075408147</v>
+        <v>830.0383715796588</v>
       </c>
       <c r="Y4" t="n">
-        <v>872.3234075408147</v>
+        <v>830.0383715796588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4541,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386632</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450754</v>
+        <v>1661.180757366038</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.1346335501037</v>
+        <v>551.0642295677645</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>382.1280466398576</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F7" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1189.344382730594</v>
+        <v>1061.273978748255</v>
       </c>
       <c r="W7" t="n">
-        <v>899.9272126936338</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="X7" t="n">
-        <v>899.9272126936338</v>
+        <v>771.8568087112947</v>
       </c>
       <c r="Y7" t="n">
-        <v>679.1346335501037</v>
+        <v>551.0642295677645</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1734.047335491682</v>
+        <v>1513.341883274785</v>
       </c>
       <c r="C8" t="n">
-        <v>1365.084818551271</v>
+        <v>1144.379366334374</v>
       </c>
       <c r="D8" t="n">
-        <v>1006.81911994452</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="E8" t="n">
-        <v>621.030867346276</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F8" t="n">
-        <v>210.0449625566684</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>199.012916442069</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W8" t="n">
-        <v>2884.252265792696</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X8" t="n">
-        <v>2510.786507531616</v>
+        <v>2290.081055314719</v>
       </c>
       <c r="Y8" t="n">
-        <v>2120.647175555804</v>
+        <v>1899.941723338907</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>481.6572696514548</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>663.3057344816946</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5027,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192611</v>
@@ -5042,49 +5042,49 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>214.9229991561127</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>710.2486053718716</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N12" t="n">
         <v>1307.627092998424</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>363.7369613277364</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2144.05565446885</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1854.980427813048</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1600.295939607161</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1310.8787695702</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1082.889218672183</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>862.0966395286528</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5252,37 +5252,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004716</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,37 +5291,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797191</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637307</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597624</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168404</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5537,25 +5537,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797191</v>
+        <v>315.9123021921476</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N18" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O18" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P18" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,16 +5738,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111716</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797191</v>
+        <v>139.2347658407936</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797191</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.793114229131</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5944,16 +5944,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075809</v>
@@ -5999,10 +5999,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6011,16 +6011,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797191</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.793114229131</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468418</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>718.5507239167111</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C25" t="n">
-        <v>549.6145409888043</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D25" t="n">
-        <v>549.6145409888043</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6187,10 +6187,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1104.935454102179</v>
       </c>
       <c r="Y25" t="n">
-        <v>718.5507239167111</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>721.7774158311364</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>903.4258806613761</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6440,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556949</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D31" t="n">
-        <v>415.5933575433592</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>700.7543264856228</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6713,13 +6713,13 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6923,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038363</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797765</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648821</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.656698326753</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>803.8641191832228</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7804,52 +7804,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>1.27897692436818e-12</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.76050189075379</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>164.9286282187626</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038569</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>41.54258064659049</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228705</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,22 +24361,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>186.7544012944545</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.81817176293572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>205.8445769401526</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>49.43558426092515</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520963</v>
+        <v>5.199738306158224</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>105.8997516910995</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>107.2784330767803</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>126.7126101431581</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25795,7 +25795,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>202.6501519448728</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>63.36835372228708</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>818125.5910602277</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>818125.5910602281</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>818125.5910602278</v>
+        <v>818125.5910602279</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>818125.5910602279</v>
+        <v>818125.5910602278</v>
       </c>
     </row>
     <row r="14">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="F2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="H2" t="n">
-        <v>605359.9497675041</v>
-      </c>
       <c r="I2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="O2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,34 +26415,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.01098815713</v>
+      </c>
+      <c r="C4" t="n">
+        <v>90964.01098815713</v>
+      </c>
+      <c r="D4" t="n">
         <v>90964.0109881571</v>
       </c>
-      <c r="C4" t="n">
-        <v>90964.01098815707</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90964.01098815707</v>
-      </c>
       <c r="E4" t="n">
-        <v>11776.97621680568</v>
+        <v>11776.97621680581</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.9762168057</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680578</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680576</v>
+        <v>11776.9762168058</v>
       </c>
       <c r="L4" t="n">
         <v>11776.97621680582</v>
@@ -26451,7 +26451,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
         <v>11776.97621680582</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911861.3698789307</v>
+        <v>-911861.3698789304</v>
       </c>
       <c r="C6" t="n">
-        <v>416883.3758486619</v>
+        <v>416883.3758486618</v>
       </c>
       <c r="D6" t="n">
-        <v>416883.3758486619</v>
+        <v>416883.3758486621</v>
       </c>
       <c r="E6" t="n">
-        <v>167047.9819194361</v>
+        <v>167013.2439940003</v>
       </c>
       <c r="F6" t="n">
-        <v>492460.4437267914</v>
+        <v>492425.7058013559</v>
       </c>
       <c r="G6" t="n">
-        <v>492460.4437267912</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="H6" t="n">
-        <v>492460.4437267912</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="I6" t="n">
-        <v>492460.4437267911</v>
+        <v>492425.705801356</v>
       </c>
       <c r="J6" t="n">
-        <v>274929.2413295138</v>
+        <v>274894.5034040782</v>
       </c>
       <c r="K6" t="n">
-        <v>492460.4437267914</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="L6" t="n">
-        <v>492460.4437267912</v>
+        <v>492425.7058013558</v>
       </c>
       <c r="M6" t="n">
-        <v>407405.4157912796</v>
+        <v>407370.6778658438</v>
       </c>
       <c r="N6" t="n">
-        <v>492460.4437267911</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="O6" t="n">
-        <v>492460.4437267911</v>
+        <v>492425.7058013555</v>
       </c>
       <c r="P6" t="n">
-        <v>492460.4437267911</v>
+        <v>492425.7058013555</v>
       </c>
     </row>
   </sheetData>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1172.708288099648</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973556</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>271.7461296822323</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>102.5552677716039</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>81.06705623707988</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>236.8389923999454</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>303.9530049144591</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>349.2823568080678</v>
       </c>
     </row>
     <row r="6">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>116.2599197713382</v>
+        <v>179.2392451602645</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27859,16 +27859,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>163.4319723775338</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>272.5499811934117</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.146496819442291</v>
       </c>
     </row>
     <row r="11">
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-5.754802930929109e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-5.417698205400533e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28327,13 +28327,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.887874563307768e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.523441772999442e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29490,7 +29490,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29736,7 +29736,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30168,7 +30168,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068245</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437245</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>295.3955842839422</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,13 +32312,13 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430268</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159414</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
@@ -32494,7 +32494,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
         <v>125.3175546292901</v>
@@ -32546,16 +32546,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814848</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862122</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214699</v>
@@ -32573,7 +32573,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33029,13 +33029,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437244</v>
@@ -33047,7 +33047,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33257,19 +33257,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>395.1848490935914</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071786</v>
@@ -33284,7 +33284,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,28 +33500,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33655,7 +33655,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817577</v>
@@ -33731,7 +33731,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,10 +33740,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>232.153703594058</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33758,7 +33758,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33892,34 +33892,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>404.0195168876591</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>122.3296324324654</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402472</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992801</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>157.5541453095832</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>73.1808046631526</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193505</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>44.09163190712582</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071396</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O27" t="n">
         <v>557.48457599928</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193518</v>
@@ -36905,19 +36905,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>253.0508151715731</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238454</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O33" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
         <v>479.4543240367771</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>90.01966967203964</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096369</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
         <v>394.3420143191315</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38090,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
